--- a/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
+++ b/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\RK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696133CD-F646-4AFA-BC12-AB66201B7B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D371842-502D-46D0-B822-8E2E830D9A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="720" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -1587,7 +1587,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,9 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="201"/>
+      <c r="B4" s="200"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -3078,17 +3075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="str">
+      <c r="B1" s="201" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3219,9 +3216,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="156" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="156" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="156" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="155" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="155" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3234,18 +3231,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3254,34 +3251,34 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="208" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="211"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="210"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="157"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="89"/>
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="209"/>
+      <c r="F5" s="208"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3299,10 +3296,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="208"/>
+      <c r="I6" s="207"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -3341,42 +3338,42 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="164"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="159"/>
+      <c r="B8" s="163"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="158"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="166">
+      <c r="B9" s="165">
         <v>1</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168" t="s">
+      <c r="C9" s="166"/>
+      <c r="D9" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168" t="s">
+      <c r="E9" s="166"/>
+      <c r="F9" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="169">
+      <c r="G9" s="168">
         <v>888.8</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="160">
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="159">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3399,9 +3396,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="166"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3424,9 +3421,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3449,9 +3446,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3474,43 +3471,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="166">
+      <c r="B15" s="165">
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="166"/>
+      <c r="D15" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168" t="s">
+      <c r="E15" s="166"/>
+      <c r="F15" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="169">
+      <c r="G15" s="168">
         <v>888.8</v>
       </c>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="160">
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="159">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3533,9 +3530,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3558,9 +3555,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3583,9 +3580,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3608,43 +3605,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="166">
+      <c r="B21" s="165">
         <v>3</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168" t="s">
+      <c r="C21" s="166"/>
+      <c r="D21" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168" t="s">
+      <c r="E21" s="166"/>
+      <c r="F21" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="169">
+      <c r="G21" s="168">
         <v>888.8</v>
       </c>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="160">
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="159">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3667,9 +3664,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3692,9 +3689,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3717,9 +3714,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3742,43 +3739,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="166">
+      <c r="B27" s="165">
         <v>4</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168" t="s">
+      <c r="C27" s="166"/>
+      <c r="D27" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168" t="s">
+      <c r="E27" s="166"/>
+      <c r="F27" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="169">
+      <c r="G27" s="168">
         <v>888.8</v>
       </c>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="160">
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="159">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3801,9 +3798,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3826,9 +3823,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3851,9 +3848,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3876,9 +3873,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3887,11 +3884,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="166">
+      <c r="B33" s="165">
         <v>5</v>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="168" t="s">
+      <c r="C33" s="166"/>
+      <c r="D33" s="167" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3903,16 +3900,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="160">
+      <c r="J33" s="155"/>
+      <c r="K33" s="159">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="166"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3935,9 +3932,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="166"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3960,9 +3957,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="166"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3985,9 +3982,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4010,43 +4007,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="166"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="166">
+      <c r="B39" s="165">
         <v>6</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="168" t="s">
+      <c r="C39" s="166"/>
+      <c r="D39" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="168" t="s">
+      <c r="E39" s="166"/>
+      <c r="F39" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="169">
+      <c r="G39" s="168">
         <v>888.8</v>
       </c>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="160">
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="159">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="166"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4069,9 +4066,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="166"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4094,9 +4091,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="166"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4119,9 +4116,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="166"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4144,43 +4141,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="166"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="166">
+      <c r="B45" s="165">
         <v>7</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="168" t="s">
+      <c r="C45" s="166"/>
+      <c r="D45" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="167"/>
-      <c r="F45" s="168" t="s">
+      <c r="E45" s="166"/>
+      <c r="F45" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="169">
+      <c r="G45" s="168">
         <v>888.8</v>
       </c>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="160">
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="159">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="166"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4203,9 +4200,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="166"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4228,9 +4225,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="166"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4253,9 +4250,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="166"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4278,43 +4275,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="166"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="166">
+      <c r="B51" s="165">
         <v>8</v>
       </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="168" t="s">
+      <c r="C51" s="166"/>
+      <c r="D51" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="167"/>
-      <c r="F51" s="168" t="s">
+      <c r="E51" s="166"/>
+      <c r="F51" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="169">
+      <c r="G51" s="168">
         <v>888.8</v>
       </c>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="160">
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="159">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="166"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4337,9 +4334,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4362,9 +4359,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4387,9 +4384,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="166"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4412,43 +4409,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="166"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="166">
+      <c r="B57" s="165">
         <v>9</v>
       </c>
-      <c r="C57" s="167"/>
-      <c r="D57" s="168" t="s">
+      <c r="C57" s="166"/>
+      <c r="D57" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="167"/>
-      <c r="F57" s="168" t="s">
+      <c r="E57" s="166"/>
+      <c r="F57" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="169">
+      <c r="G57" s="168">
         <v>888.8</v>
       </c>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="160">
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="159">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="166"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4471,9 +4468,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4496,9 +4493,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4521,9 +4518,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="166"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="170"/>
+      <c r="B62" s="169"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62"/>
@@ -4556,14 +4553,14 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="161"/>
+      <c r="K62" s="160"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="166">
+      <c r="B63" s="165">
         <v>10</v>
       </c>
-      <c r="C63" s="167"/>
-      <c r="D63" s="168" t="s">
+      <c r="C63" s="166"/>
+      <c r="D63" s="167" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="90"/>
@@ -4575,16 +4572,16 @@
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="160">
+      <c r="J63" s="155"/>
+      <c r="K63" s="159">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="166"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4607,9 +4604,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="166"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4632,9 +4629,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="166"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4657,9 +4654,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="166"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4682,38 +4679,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="164"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
+      <c r="B68" s="163"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="166">
+      <c r="B69" s="165">
         <v>11</v>
       </c>
-      <c r="C69" s="167"/>
-      <c r="D69" s="168" t="s">
+      <c r="C69" s="166"/>
+      <c r="D69" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="167"/>
-      <c r="F69" s="168" t="s">
+      <c r="E69" s="166"/>
+      <c r="F69" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="169">
+      <c r="G69" s="168">
         <v>888.8</v>
       </c>
-      <c r="H69" s="173"/>
-      <c r="I69" s="173"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="160">
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="159">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="166"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4736,9 +4733,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="166"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="166"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4761,9 +4758,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="166"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="167"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="166"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4786,9 +4783,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="166"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4811,38 +4808,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="173"/>
+      <c r="B74" s="163"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="166">
+      <c r="B75" s="165">
         <v>12</v>
       </c>
-      <c r="C75" s="167"/>
-      <c r="D75" s="168" t="s">
+      <c r="C75" s="166"/>
+      <c r="D75" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="167"/>
-      <c r="F75" s="168" t="s">
+      <c r="E75" s="166"/>
+      <c r="F75" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="169">
+      <c r="G75" s="168">
         <v>888.8</v>
       </c>
-      <c r="H75" s="173"/>
-      <c r="I75" s="173"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="160">
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="159">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="166"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4865,9 +4862,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4890,9 +4887,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="166"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4915,9 +4912,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="166"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4940,20 +4937,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="171"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="176"/>
-      <c r="H80" s="162"/>
-      <c r="I80" s="162"/>
-      <c r="J80" s="162"/>
-      <c r="K80" s="163"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="174"/>
+      <c r="F80" s="174"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="161"/>
+      <c r="I80" s="161"/>
+      <c r="J80" s="161"/>
+      <c r="K80" s="162"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="158" t="s">
+      <c r="B82" s="157" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5012,30 +5009,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="str">
+      <c r="B2" s="216" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="219"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="218"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5070,31 +5067,31 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="214" t="s">
+      <c r="E7" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="214" t="s">
+      <c r="J7" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="216"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="215"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="214" t="s">
+      <c r="O7" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="215"/>
       <c r="S7" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="T7" s="148"/>
-      <c r="U7" s="150" t="s">
+      <c r="T7" s="147"/>
+      <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
@@ -5107,57 +5104,57 @@
         <v>0</v>
       </c>
       <c r="C8" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="142">
+      <c r="E8" s="141">
         <v>1</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="142">
         <v>2</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="142">
         <v>3</v>
       </c>
-      <c r="H8" s="144">
+      <c r="H8" s="143">
         <v>4</v>
       </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="142">
+      <c r="I8" s="144"/>
+      <c r="J8" s="141">
         <v>1</v>
       </c>
-      <c r="K8" s="143">
+      <c r="K8" s="142">
         <v>2</v>
       </c>
-      <c r="L8" s="143">
+      <c r="L8" s="142">
         <v>3</v>
       </c>
-      <c r="M8" s="144">
+      <c r="M8" s="143">
         <v>4</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="142">
+      <c r="N8" s="144"/>
+      <c r="O8" s="141">
         <v>1</v>
       </c>
-      <c r="P8" s="143">
+      <c r="P8" s="142">
         <v>2</v>
       </c>
-      <c r="Q8" s="143">
+      <c r="Q8" s="142">
         <v>3</v>
       </c>
-      <c r="R8" s="144">
+      <c r="R8" s="143">
         <v>4</v>
       </c>
-      <c r="S8" s="146" t="s">
+      <c r="S8" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="T8" s="149"/>
-      <c r="U8" s="151" t="s">
+      <c r="T8" s="148"/>
+      <c r="U8" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="147"/>
+      <c r="V8" s="146"/>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -5228,12 +5225,12 @@
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="155">
+      <c r="U9" s="151"/>
+      <c r="V9" s="154">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="154"/>
+      <c r="X9" s="153"/>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5305,12 +5302,12 @@
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="155">
+      <c r="U10" s="152"/>
+      <c r="V10" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="154"/>
+      <c r="X10" s="153"/>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5382,12 +5379,12 @@
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="155">
+      <c r="U11" s="152"/>
+      <c r="V11" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="154"/>
+      <c r="X11" s="153"/>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5459,12 +5456,12 @@
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="155">
+      <c r="U12" s="152"/>
+      <c r="V12" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="154"/>
+      <c r="X12" s="153"/>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5536,12 +5533,12 @@
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="155">
+      <c r="U13" s="152"/>
+      <c r="V13" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="154"/>
+      <c r="X13" s="153"/>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,12 +5610,12 @@
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="155">
+      <c r="U14" s="152"/>
+      <c r="V14" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="154"/>
+      <c r="X14" s="153"/>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,12 +5687,12 @@
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="155">
+      <c r="U15" s="152"/>
+      <c r="V15" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="154"/>
+      <c r="X15" s="153"/>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5767,12 +5764,12 @@
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="155">
+      <c r="U16" s="152"/>
+      <c r="V16" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="154"/>
+      <c r="X16" s="153"/>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5844,12 +5841,12 @@
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="155">
+      <c r="U17" s="152"/>
+      <c r="V17" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="154"/>
+      <c r="X17" s="153"/>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5921,12 +5918,12 @@
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="155">
+      <c r="U18" s="152"/>
+      <c r="V18" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="154"/>
+      <c r="X18" s="153"/>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,113 +5995,113 @@
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="155">
+      <c r="U19" s="152"/>
+      <c r="V19" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="154"/>
+      <c r="X19" s="153"/>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="188">
+      <c r="B20" s="187">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="189" t="str">
+      <c r="C20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="190" t="str">
+      <c r="D20" s="189" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="191" t="str">
+      <c r="E20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="191" t="str">
+      <c r="F20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="191" t="str">
+      <c r="G20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="191" t="str">
+      <c r="H20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
       <c r="I20" s="123"/>
-      <c r="J20" s="191" t="str">
+      <c r="J20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="191" t="str">
+      <c r="K20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="191" t="str">
+      <c r="L20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="191" t="str">
+      <c r="M20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
       <c r="N20" s="123"/>
-      <c r="O20" s="192" t="str">
+      <c r="O20" s="191" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="193" t="str">
+      <c r="P20" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="193" t="str">
+      <c r="Q20" s="192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="194" t="str">
+      <c r="R20" s="193" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="195">
+      <c r="S20" s="194">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="198"/>
-      <c r="U20" s="196"/>
-      <c r="V20" s="197">
+      <c r="T20" s="197"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="196">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="154"/>
+      <c r="X20" s="153"/>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="199"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="200"/>
-      <c r="U21" s="200"/>
-      <c r="V21" s="200"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6190,32 +6187,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="219" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="222"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="221"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6478,8 +6475,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="183" t="str">
+      <c r="H12" s="176"/>
+      <c r="I12" s="182" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6559,8 +6556,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="184" t="str">
+      <c r="H14" s="176"/>
+      <c r="I14" s="183" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6611,8 +6608,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="183" t="str">
+      <c r="P15" s="176"/>
+      <c r="Q15" s="182" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6654,7 +6651,7 @@
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="181" t="str">
+      <c r="P16" s="180" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6702,8 +6699,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="184" t="str">
+      <c r="P17" s="176"/>
+      <c r="Q17" s="183" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6743,8 +6740,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="183" t="str">
+      <c r="H18" s="176"/>
+      <c r="I18" s="182" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6816,8 +6813,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="178"/>
-      <c r="Y19" s="179" t="str">
+      <c r="X19" s="177"/>
+      <c r="Y19" s="178" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6863,8 +6860,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="184" t="str">
+      <c r="H20" s="176"/>
+      <c r="I20" s="183" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6876,7 +6873,7 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="181" t="str">
+      <c r="X20" s="180" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6929,8 +6926,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="178"/>
-      <c r="Y21" s="180" t="str">
+      <c r="X21" s="177"/>
+      <c r="Y21" s="179" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -6961,7 +6958,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="185"/>
+      <c r="I22" s="184"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7002,8 +6999,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="183" t="str">
+      <c r="H24" s="176"/>
+      <c r="I24" s="182" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7074,8 +7071,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="184" t="str">
+      <c r="H26" s="176"/>
+      <c r="I26" s="183" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7138,8 +7135,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="183" t="str">
+      <c r="P27" s="176"/>
+      <c r="Q27" s="182" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7175,7 +7172,7 @@
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="181" t="str">
+      <c r="P28" s="180" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7226,8 +7223,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="184" t="str">
+      <c r="P29" s="176"/>
+      <c r="Q29" s="183" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7260,8 +7257,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="183" t="str">
+      <c r="H30" s="176"/>
+      <c r="I30" s="182" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7328,8 +7325,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="179" t="str">
+      <c r="X31" s="177"/>
+      <c r="Y31" s="178" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7375,8 +7372,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="184" t="str">
+      <c r="H32" s="176"/>
+      <c r="I32" s="183" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7386,7 +7383,7 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="181" t="str">
+      <c r="X32" s="180" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7435,8 +7432,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="180" t="str">
+      <c r="X33" s="177"/>
+      <c r="Y33" s="179" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7613,24 +7610,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="219" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="222"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="221"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7744,8 +7741,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183" t="str">
+      <c r="H11" s="181"/>
+      <c r="I11" s="182" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7774,7 +7771,7 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="181" t="str">
+      <c r="H12" s="180" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7821,8 +7818,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="184" t="str">
+      <c r="H13" s="181"/>
+      <c r="I13" s="183" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7884,8 +7881,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="186" t="str">
+      <c r="P15" s="177"/>
+      <c r="Q15" s="185" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -7913,7 +7910,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="181" t="str">
+      <c r="P16" s="180" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7949,8 +7946,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="187" t="str">
+      <c r="P17" s="177"/>
+      <c r="Q17" s="186" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8028,8 +8025,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="183" t="str">
+      <c r="H20" s="181"/>
+      <c r="I20" s="182" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8057,7 +8054,7 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="181" t="str">
+      <c r="H21" s="180" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8100,8 +8097,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="184" t="str">
+      <c r="H22" s="181"/>
+      <c r="I22" s="183" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8166,8 +8163,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="186" t="str">
+      <c r="P25" s="177"/>
+      <c r="Q25" s="185" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8197,7 +8194,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="181" t="str">
+      <c r="P26" s="180" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8235,8 +8232,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="187" t="str">
+      <c r="P27" s="177"/>
+      <c r="Q27" s="186" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>

--- a/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
+++ b/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\RK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D371842-502D-46D0-B822-8E2E830D9A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776CEF3-9A01-4187-BC4A-E5E41442E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="720" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -3211,7 +3211,9 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7522,9 +7524,9 @@
       <formula>AC$13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30 H32">
-    <cfRule type="expression" dxfId="10" priority="19">
-      <formula>AC$31=FALSE</formula>
+  <conditionalFormatting sqref="H18 H20">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>AC$19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26">
@@ -7532,18 +7534,18 @@
       <formula>AC$25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H20">
-    <cfRule type="expression" dxfId="8" priority="21">
-      <formula>AC$19=FALSE</formula>
+  <conditionalFormatting sqref="H30 H32">
+    <cfRule type="expression" dxfId="8" priority="19">
+      <formula>AC$31=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P27">
+    <cfRule type="expression" dxfId="7" priority="25">
+      <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 P29">
-    <cfRule type="expression" dxfId="7" priority="24">
-      <formula>AI16=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15 P27">
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8276,24 +8278,24 @@
     <mergeCell ref="B4:P4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="P25 P27">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AA$26=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 H11">
-    <cfRule type="expression" dxfId="2" priority="29">
+  <conditionalFormatting sqref="H11 H20">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H13">
-    <cfRule type="expression" dxfId="1" priority="30">
+  <conditionalFormatting sqref="H13 H22">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P17">
-    <cfRule type="expression" dxfId="0" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>AA$16=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25 P27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AA$26=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
+++ b/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\RK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776CEF3-9A01-4187-BC4A-E5E41442E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A684E-3C0F-47C5-838E-3B002B682A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2175" windowWidth="18195" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Baan</t>
   </si>
@@ -487,28 +487,6 @@
   </si>
   <si>
     <t>Vereniging 123</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E-mail </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>opsturen ingevuld bestand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: nhb-apps-support@handboogsport.nl</t>
-    </r>
   </si>
   <si>
     <t>sporter</t>
@@ -712,6 +690,31 @@
   </si>
   <si>
     <t>- Ze hebben genoeg scores neergezet in de regiocompetitie</t>
+  </si>
+  <si>
+    <t>Contactgegevens</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E-mail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>insturen ingevuld bestand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: mh-support@handboogsport.nl</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2788,13 +2791,13 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="200" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="200"/>
     </row>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2813,7 +2816,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2828,7 +2831,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2844,7 +2847,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2871,7 +2874,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,12 +2902,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2915,32 +2918,32 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B35" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2949,13 +2952,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3029,15 +3032,19 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -3094,12 +3101,12 @@
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D6" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D7" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -3234,7 +3241,7 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="204" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="205"/>
       <c r="D2" s="205"/>
@@ -3324,7 +3331,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="120" t="s">
         <v>52</v>
@@ -3333,7 +3340,7 @@
         <v>53</v>
       </c>
       <c r="J7" s="115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="118" t="s">
         <v>6</v>
@@ -5090,14 +5097,14 @@
       <c r="Q7" s="214"/>
       <c r="R7" s="215"/>
       <c r="S7" s="127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T7" s="147"/>
       <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5150,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="S8" s="145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T8" s="148"/>
       <c r="U8" s="150" t="s">
@@ -7723,7 +7730,7 @@
         <v>92</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y10" s="18"/>
     </row>
@@ -8008,7 +8015,7 @@
         <v>92</v>
       </c>
       <c r="X19" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">

--- a/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
+++ b/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\RK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A684E-3C0F-47C5-838E-3B002B682A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544C370-36B1-4941-B2C1-DDFE6D90D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2175" windowWidth="18195" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1095" windowWidth="18810" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Finales 4 teams" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$B$8:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$V$8:$V$20</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -3218,9 +3218,7 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6114,11 +6112,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="B8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
-      <sortCondition ref="B8:B20"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="V8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
     <sortCondition ref="B9"/>
   </sortState>

--- a/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
+++ b/CompLaagRayon/files/template-excel-rk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\RK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544C370-36B1-4941-B2C1-DDFE6D90D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE153B-115F-417F-A859-F64AAE3A608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1095" windowWidth="18810" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Finales 4 teams" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$V$8:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$B$8:$X$20</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Deelnemers en Scores'!$B$2:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Finales 4 teams'!$A$1:$R$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 8 teams'!$A$1:$Z$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$Y$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$W$21</definedName>
     <definedName name="PRINT_B">#REF!</definedName>
     <definedName name="PRINT_C">#REF!</definedName>
     <definedName name="PRINT_COMP_A">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>Baan</t>
   </si>
@@ -499,30 +499,6 @@
   </si>
   <si>
     <t>Naar finale?</t>
-  </si>
-  <si>
-    <r>
-      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download.
-Aan het einde van de wedstrijd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> voor publicatie.
-Contactgegevens staan onderaan.</t>
-    </r>
   </si>
   <si>
     <t>Finales met 8 of 4 teams</t>
@@ -714,6 +690,34 @@
         <family val="2"/>
       </rPr>
       <t>: mh-support@handboogsport.nl</t>
+    </r>
+  </si>
+  <si>
+    <t>Sorteer mij</t>
+  </si>
+  <si>
+    <t>(hoog naar laag)</t>
+  </si>
+  <si>
+    <r>
+      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download. Aan het einde van de wedstrijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voor publicatie. De contactgegevens staan onderaan.</t>
     </r>
   </si>
 </sst>
@@ -899,7 +903,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,8 +952,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1584,13 +1594,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2018,9 +2054,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2159,6 +2192,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2242,7 +2284,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A7495752-5368-4B1C-A554-75568F9C1911}"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -2324,6 +2366,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2791,22 +2840,22 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="200" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="200"/>
+    <row r="4" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="202"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2816,7 +2865,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2831,7 +2880,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2847,7 +2896,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,12 +2951,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2918,32 +2967,32 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B35" s="100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2952,13 +3001,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3034,17 +3083,17 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -3082,17 +3131,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="201" t="str">
+      <c r="B1" s="203" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3101,12 +3150,12 @@
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D6" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D7" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -3223,9 +3272,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="155" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="155" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="154" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="154" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="154" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3238,18 +3287,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="206"/>
+      <c r="B2" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3258,34 +3307,34 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="210" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="209" t="s">
+      <c r="H4" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="210"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="89"/>
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="208"/>
+      <c r="F5" s="210"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3303,10 +3352,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="207"/>
+      <c r="I6" s="209"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -3345,42 +3394,42 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="163"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="158"/>
+      <c r="B8" s="162"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="157"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="165">
+      <c r="B9" s="164">
         <v>1</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="165"/>
+      <c r="D9" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167" t="s">
+      <c r="E9" s="165"/>
+      <c r="F9" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="168">
+      <c r="G9" s="167">
         <v>888.8</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="159">
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="158">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="165"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3403,9 +3452,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3428,9 +3477,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3453,9 +3502,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3478,43 +3527,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="165">
+      <c r="B15" s="164">
         <v>2</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="165"/>
+      <c r="D15" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167" t="s">
+      <c r="E15" s="165"/>
+      <c r="F15" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="168">
+      <c r="G15" s="167">
         <v>888.8</v>
       </c>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="159">
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="158">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3537,9 +3586,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3562,9 +3611,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3587,9 +3636,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3612,43 +3661,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="165">
+      <c r="B21" s="164">
         <v>3</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167" t="s">
+      <c r="E21" s="165"/>
+      <c r="F21" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="168">
+      <c r="G21" s="167">
         <v>888.8</v>
       </c>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="159">
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="158">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="165"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3671,9 +3720,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="165"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3696,9 +3745,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="165"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3721,9 +3770,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3746,43 +3795,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="165">
+      <c r="B27" s="164">
         <v>4</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167" t="s">
+      <c r="C27" s="165"/>
+      <c r="D27" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167" t="s">
+      <c r="E27" s="165"/>
+      <c r="F27" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="168">
+      <c r="G27" s="167">
         <v>888.8</v>
       </c>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="159">
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="158">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3805,9 +3854,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3830,9 +3879,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3855,9 +3904,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3880,9 +3929,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3891,11 +3940,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="165">
+      <c r="B33" s="164">
         <v>5</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="165"/>
+      <c r="D33" s="166" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3907,16 +3956,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="159">
+      <c r="J33" s="154"/>
+      <c r="K33" s="158">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="165"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3939,9 +3988,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="165"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3964,9 +4013,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="165"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3989,9 +4038,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4014,43 +4063,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="165"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="165">
+      <c r="B39" s="164">
         <v>6</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167" t="s">
+      <c r="C39" s="165"/>
+      <c r="D39" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167" t="s">
+      <c r="E39" s="165"/>
+      <c r="F39" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="168">
+      <c r="G39" s="167">
         <v>888.8</v>
       </c>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="159">
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="158">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4073,9 +4122,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="165"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4098,9 +4147,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="165"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4123,9 +4172,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="165"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4148,43 +4197,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="165"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="165">
+      <c r="B45" s="164">
         <v>7</v>
       </c>
-      <c r="C45" s="166"/>
-      <c r="D45" s="167" t="s">
+      <c r="C45" s="165"/>
+      <c r="D45" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="166"/>
-      <c r="F45" s="167" t="s">
+      <c r="E45" s="165"/>
+      <c r="F45" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="168">
+      <c r="G45" s="167">
         <v>888.8</v>
       </c>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="159">
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="158">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="165"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4207,9 +4256,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="165"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4232,9 +4281,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4257,9 +4306,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4282,43 +4331,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="165"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="165">
+      <c r="B51" s="164">
         <v>8</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="167" t="s">
+      <c r="C51" s="165"/>
+      <c r="D51" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="167" t="s">
+      <c r="E51" s="165"/>
+      <c r="F51" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="168">
+      <c r="G51" s="167">
         <v>888.8</v>
       </c>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="159">
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="158">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4341,9 +4390,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4366,9 +4415,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="165"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4391,9 +4440,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="165"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4416,43 +4465,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="165">
+      <c r="B57" s="164">
         <v>9</v>
       </c>
-      <c r="C57" s="166"/>
-      <c r="D57" s="167" t="s">
+      <c r="C57" s="165"/>
+      <c r="D57" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="167" t="s">
+      <c r="E57" s="165"/>
+      <c r="F57" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="168">
+      <c r="G57" s="167">
         <v>888.8</v>
       </c>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="159">
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="158">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4475,9 +4524,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4500,9 +4549,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="165"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4525,9 +4574,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="165"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4551,7 +4600,7 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="169"/>
+      <c r="B62" s="168"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62"/>
@@ -4560,14 +4609,14 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="160"/>
+      <c r="K62" s="159"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="165">
+      <c r="B63" s="164">
         <v>10</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167" t="s">
+      <c r="C63" s="165"/>
+      <c r="D63" s="166" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="90"/>
@@ -4579,16 +4628,16 @@
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="159">
+      <c r="J63" s="154"/>
+      <c r="K63" s="158">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4611,9 +4660,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4636,9 +4685,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4661,9 +4710,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="166"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4686,38 +4735,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="163"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="B68" s="162"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="165">
+      <c r="B69" s="164">
         <v>11</v>
       </c>
-      <c r="C69" s="166"/>
-      <c r="D69" s="167" t="s">
+      <c r="C69" s="165"/>
+      <c r="D69" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="166"/>
-      <c r="F69" s="167" t="s">
+      <c r="E69" s="165"/>
+      <c r="F69" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="168">
+      <c r="G69" s="167">
         <v>888.8</v>
       </c>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="159">
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="158">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4740,9 +4789,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="166"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4765,9 +4814,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="165"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4790,9 +4839,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="165"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4815,38 +4864,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="163"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
+      <c r="B74" s="162"/>
+      <c r="H74" s="171"/>
+      <c r="I74" s="171"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="165">
+      <c r="B75" s="164">
         <v>12</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="167" t="s">
+      <c r="C75" s="165"/>
+      <c r="D75" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="166"/>
-      <c r="F75" s="167" t="s">
+      <c r="E75" s="165"/>
+      <c r="F75" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="168">
+      <c r="G75" s="167">
         <v>888.8</v>
       </c>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="159">
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="158">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="165"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="166"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4869,9 +4918,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="165"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4894,9 +4943,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="165"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4919,9 +4968,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="165"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4944,20 +4993,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="174"/>
-      <c r="F80" s="174"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="161"/>
-      <c r="I80" s="161"/>
-      <c r="J80" s="161"/>
-      <c r="K80" s="162"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="174"/>
+      <c r="H80" s="160"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="160"/>
+      <c r="K80" s="161"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="157" t="s">
+      <c r="B82" s="156" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4992,7 +5041,7 @@
   <sheetPr transitionEvaluation="1" codeName="Blad3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Y21"/>
+  <dimension ref="A2:Y25"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -5010,36 +5059,36 @@
     <col min="21" max="21" width="6.5546875" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" customWidth="1"/>
     <col min="23" max="23" width="2.21875" customWidth="1"/>
-    <col min="24" max="24" width="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.77734375" customWidth="1"/>
     <col min="25" max="25" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.77734375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="216" t="str">
+      <c r="B2" s="218" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="220"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5074,35 +5123,38 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="213" t="s">
+      <c r="J7" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="213" t="s">
+      <c r="O7" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="215"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="217"/>
       <c r="S7" s="127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T7" s="147"/>
       <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="X7" s="200" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5155,13 +5207,16 @@
         <v>4</v>
       </c>
       <c r="S8" s="145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T8" s="148"/>
       <c r="U8" s="150" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="146"/>
+      <c r="X8" s="201" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -5233,11 +5288,14 @@
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="151"/>
-      <c r="V9" s="154">
+      <c r="V9" s="153">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="153"/>
+      <c r="X9" s="199">
+        <f>V9</f>
+        <v>0</v>
+      </c>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5310,11 +5368,14 @@
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="152"/>
-      <c r="V10" s="154">
+      <c r="V10" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="153"/>
+      <c r="X10" s="199">
+        <f t="shared" ref="X10:X20" si="6">V10</f>
+        <v>0</v>
+      </c>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5387,11 +5448,14 @@
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="152"/>
-      <c r="V11" s="154">
+      <c r="V11" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="153"/>
+      <c r="X11" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5464,11 +5528,14 @@
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="152"/>
-      <c r="V12" s="154">
+      <c r="V12" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="153"/>
+      <c r="X12" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,11 +5608,14 @@
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="152"/>
-      <c r="V13" s="154">
+      <c r="V13" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="153"/>
+      <c r="X13" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5618,11 +5688,14 @@
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="152"/>
-      <c r="V14" s="154">
+      <c r="V14" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="153"/>
+      <c r="X14" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5695,11 +5768,14 @@
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="152"/>
-      <c r="V15" s="154">
+      <c r="V15" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="153"/>
+      <c r="X15" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5772,11 +5848,14 @@
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="152"/>
-      <c r="V16" s="154">
+      <c r="V16" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="153"/>
+      <c r="X16" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,11 +5928,14 @@
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="152"/>
-      <c r="V17" s="154">
+      <c r="V17" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="153"/>
+      <c r="X17" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5926,11 +6008,14 @@
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="152"/>
-      <c r="V18" s="154">
+      <c r="V18" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="153"/>
+      <c r="X18" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6003,116 +6088,125 @@
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="152"/>
-      <c r="V19" s="154">
+      <c r="V19" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="153"/>
+      <c r="X19" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="187">
+      <c r="B20" s="186">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="188" t="str">
+      <c r="C20" s="187" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="189" t="str">
+      <c r="D20" s="188" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="190" t="str">
+      <c r="E20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="190" t="str">
+      <c r="F20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="190" t="str">
+      <c r="G20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="190" t="str">
+      <c r="H20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
       <c r="I20" s="123"/>
-      <c r="J20" s="190" t="str">
+      <c r="J20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="190" t="str">
+      <c r="K20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="190" t="str">
+      <c r="L20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="190" t="str">
+      <c r="M20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
       <c r="N20" s="123"/>
-      <c r="O20" s="191" t="str">
+      <c r="O20" s="190" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="192" t="str">
+      <c r="P20" s="191" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="192" t="str">
+      <c r="Q20" s="191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="193" t="str">
+      <c r="R20" s="192" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="194">
+      <c r="S20" s="193">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="197"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="196">
+      <c r="T20" s="196"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="153"/>
+      <c r="X20" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="V8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="B8:X20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
     <sortCondition ref="B9"/>
   </sortState>
@@ -6124,10 +6218,15 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="V9:V20">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X20">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>INDEX(V9:V10,1)&lt;INDEX(V9:V10,2)</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6190,32 +6289,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="219" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
-      <c r="X4" s="221"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="223"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6478,8 +6577,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="182" t="str">
+      <c r="H12" s="175"/>
+      <c r="I12" s="181" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6559,8 +6658,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="183" t="str">
+      <c r="H14" s="175"/>
+      <c r="I14" s="182" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6611,8 +6710,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="182" t="str">
+      <c r="P15" s="175"/>
+      <c r="Q15" s="181" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6654,7 +6753,7 @@
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="179" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6702,8 +6801,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="183" t="str">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="182" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6743,8 +6842,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="182" t="str">
+      <c r="H18" s="175"/>
+      <c r="I18" s="181" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6816,8 +6915,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="178" t="str">
+      <c r="X19" s="176"/>
+      <c r="Y19" s="177" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6863,8 +6962,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="183" t="str">
+      <c r="H20" s="175"/>
+      <c r="I20" s="182" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6876,7 +6975,7 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="180" t="str">
+      <c r="X20" s="179" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6929,8 +7028,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="179" t="str">
+      <c r="X21" s="176"/>
+      <c r="Y21" s="178" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -6961,7 +7060,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="184"/>
+      <c r="I22" s="183"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7002,8 +7101,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="182" t="str">
+      <c r="H24" s="175"/>
+      <c r="I24" s="181" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7074,8 +7173,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="183" t="str">
+      <c r="H26" s="175"/>
+      <c r="I26" s="182" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7138,8 +7237,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="182" t="str">
+      <c r="P27" s="175"/>
+      <c r="Q27" s="181" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7175,7 +7274,7 @@
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="180" t="str">
+      <c r="P28" s="179" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7226,8 +7325,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="183" t="str">
+      <c r="P29" s="175"/>
+      <c r="Q29" s="182" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7260,8 +7359,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="182" t="str">
+      <c r="H30" s="175"/>
+      <c r="I30" s="181" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7328,8 +7427,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="178" t="str">
+      <c r="X31" s="176"/>
+      <c r="Y31" s="177" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7375,8 +7474,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="183" t="str">
+      <c r="H32" s="175"/>
+      <c r="I32" s="182" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7386,7 +7485,7 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="180" t="str">
+      <c r="X32" s="179" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7435,8 +7534,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="179" t="str">
+      <c r="X33" s="176"/>
+      <c r="Y33" s="178" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7613,24 +7712,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>RK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="221"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="223"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7744,8 +7843,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182" t="str">
+      <c r="H11" s="180"/>
+      <c r="I11" s="181" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7774,7 +7873,7 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="180" t="str">
+      <c r="H12" s="179" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7821,8 +7920,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="183" t="str">
+      <c r="H13" s="180"/>
+      <c r="I13" s="182" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7884,8 +7983,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="185" t="str">
+      <c r="P15" s="176"/>
+      <c r="Q15" s="184" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -7913,7 +8012,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="179" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7949,8 +8048,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="186" t="str">
+      <c r="P17" s="176"/>
+      <c r="Q17" s="185" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8028,8 +8127,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="182" t="str">
+      <c r="H20" s="180"/>
+      <c r="I20" s="181" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8057,7 +8156,7 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="180" t="str">
+      <c r="H21" s="179" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8100,8 +8199,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="183" t="str">
+      <c r="H22" s="180"/>
+      <c r="I22" s="182" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8166,8 +8265,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="185" t="str">
+      <c r="P25" s="176"/>
+      <c r="Q25" s="184" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8197,7 +8296,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="180" t="str">
+      <c r="P26" s="179" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8235,8 +8334,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="186" t="str">
+      <c r="P27" s="176"/>
+      <c r="Q27" s="185" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
